--- a/01-Report/05-tail-time_optimization/tail-timer-simulation.xlsx
+++ b/01-Report/05-tail-time_optimization/tail-timer-simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TM\Master_TM_DataCollar\01-Report\mic-parameter\sound-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TM\Master_TM_DataCollar\01-Report\05-tail-time_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D46B4E-FE50-4AF9-A148-66093B0BBC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8207B057-D9A0-44F8-A2BF-896BB9D75CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DECEEF5B-F140-479F-A32C-E01E8B4ACBCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DECEEF5B-F140-479F-A32C-E01E8B4ACBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,10 +570,10 @@
       <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -625,8 +625,8 @@
         <v>1.5035835989472317</v>
       </c>
       <c r="G4" s="6">
-        <f>(($B$15*($B$17-E4)+($B$16*E4))/$B$17)/1000</f>
-        <v>0.40888161064662132</v>
+        <f t="shared" ref="G4:G10" si="0">(($B$15*($B$17-E4)+($B$16*E4))/$B$17)/1000</f>
+        <v>0.41175303765849969</v>
       </c>
       <c r="I4" s="6">
         <v>1.0722372266205213</v>
@@ -653,12 +653,12 @@
         <v>130.8105806975</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F10" si="0">E5*$B$14/POWER(10,6)</f>
+        <f t="shared" ref="F5:F10" si="1">E5*$B$14/POWER(10,6)</f>
         <v>4.1859385823200004</v>
       </c>
       <c r="G5" s="6">
-        <f>(($B$15*($B$17-E5)+($B$16*E5))/$B$17)/1000</f>
-        <v>0.44429638025652129</v>
+        <f t="shared" si="0"/>
+        <v>0.45229036018803515</v>
       </c>
       <c r="I5" s="6">
         <v>0.43516708882966182</v>
@@ -681,16 +681,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:E10" si="1">$B$4*D6+SUM($J$4:$J$15)+SUM($K$4:$K$15)+D6</f>
+        <f t="shared" ref="E6:E9" si="2">$B$4*D6+SUM($J$4:$J$15)+SUM($K$4:$K$15)+D6</f>
         <v>235.8105806975</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5459385823199998</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>7.5459385823199998</v>
-      </c>
-      <c r="G6" s="6">
-        <f>(($B$15*($B$17-E6)+($B$16*E6))/$B$17)/1000</f>
-        <v>0.48865800525652126</v>
+        <v>0.50306865185470184</v>
       </c>
       <c r="I6" s="6">
         <v>0.68400807891693727</v>
@@ -713,16 +713,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>655.81058069750009</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>655.81058069750009</v>
-      </c>
-      <c r="F7" s="6">
+        <v>20.985938582319999</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>20.985938582319999</v>
-      </c>
-      <c r="G7" s="6">
-        <f>(($B$15*($B$17-E7)+($B$16*E7))/$B$17)/1000</f>
-        <v>0.66610450525652132</v>
+        <v>0.70618181852136852</v>
       </c>
       <c r="I7" s="6">
         <v>1.0340525354183039</v>
@@ -745,16 +745,16 @@
         <v>45</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="2"/>
+        <v>970.81058069750009</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>970.81058069750009</v>
-      </c>
-      <c r="F8" s="6">
+        <v>31.065938582320001</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>31.065938582320001</v>
-      </c>
-      <c r="G8" s="6">
-        <f>(($B$15*($B$17-E8)+($B$16*E8))/$B$17)/1000</f>
-        <v>0.79918938025652131</v>
+        <v>0.85851669352136861</v>
       </c>
       <c r="I8" s="6">
         <v>0.4692727667224349</v>
@@ -777,16 +777,16 @@
         <v>60</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>1285.8105806975</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>1285.8105806975</v>
-      </c>
-      <c r="F9" s="6">
+        <v>41.145938582319999</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>41.145938582319999</v>
-      </c>
-      <c r="G9" s="6">
-        <f>(($B$15*($B$17-E9)+($B$16*E9))/$B$17)/1000</f>
-        <v>0.93227425525652119</v>
+        <v>1.0108515685213684</v>
       </c>
       <c r="I9" s="6">
         <v>0.39863173855261874</v>
@@ -813,12 +813,12 @@
         <v>3600</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>115.2</v>
-      </c>
-      <c r="G10" s="6">
-        <f>(($B$15*($B$17-E10)+($B$16*E10))/$B$17)/1000</f>
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="I10" s="6">
         <v>1.542924880043826</v>
@@ -921,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1910</v>
+        <v>2130</v>
       </c>
       <c r="I16" s="6">
         <v>1.9560413962556114</v>
@@ -980,7 +980,7 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="6"/>
